--- a/Excel/Tutorial.xlsx
+++ b/Excel/Tutorial.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">東風谷早苗</t>
   </si>
   <si>
-    <t xml:space="preserve">東風谷早苗擅長使治療同伴，也能使用遠距離魔法攻擊。\n他的次要動作魔力壓縮可以讓該回合的攻擊更強。</t>
+    <t xml:space="preserve">東風谷早苗擅長使治療同伴，也能使用遠距離魔法攻擊。\n他的次要動作信仰之力可以讓回復技能的效果更好。\n她的被動技能：奇蹟之力，讓她治療他人時可以回復自己最大HP的10%</t>
   </si>
   <si>
     <t xml:space="preserve">Tutorial_2_3</t>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t xml:space="preserve">Tutorial_Trace_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用裝備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你獲得了裝備！按C打開角色資料介面以使用裝備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">這樣就裝備完成了！\n將滑鼠移動到裝備上可以看詳細資料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial_Equip</t>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="A1:E30"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,6 +1154,40 @@
         <v>74</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Excel/Tutorial.xlsx
+++ b/Excel/Tutorial.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">移動角色</t>
   </si>
   <si>
-    <t xml:space="preserve">選擇移動後，白色的格子代表可移動的範圍</t>
+    <t xml:space="preserve">白色的格子代表可移動的範圍</t>
   </si>
   <si>
     <t xml:space="preserve">Tutorial_1_2</t>
@@ -635,7 +635,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="A1:E32"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
